--- a/RAAL/Production/Input/GHI_2024-02-03.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-03.xlsx
@@ -59,10 +59,10 @@
     <t>+02:00</t>
   </si>
   <si>
-    <t>2024-02-03T07:46:10</t>
-  </si>
-  <si>
-    <t>2024-02-03T17:33:10</t>
+    <t>2024-02-03T07:41:36</t>
+  </si>
+  <si>
+    <t>2024-02-03T17:28:35</t>
   </si>
   <si>
     <t>hour</t>
@@ -472,7 +472,7 @@
         <v>46.073272</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2574.96</v>
+        <v>2574.57</v>
       </c>
       <c r="H2">
-        <v>5762.47</v>
+        <v>5760.33</v>
       </c>
       <c r="I2">
-        <v>675.37</v>
+        <v>673.95</v>
       </c>
       <c r="J2">
-        <v>1060.09</v>
+        <v>650.8</v>
       </c>
       <c r="K2">
-        <v>133.67</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1014.48</v>
+        <v>650.8</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         <v>46.073272</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -605,7 +605,7 @@
         <v>46.073272</v>
       </c>
       <c r="B3">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -646,7 +646,7 @@
         <v>46.073272</v>
       </c>
       <c r="B4">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -687,7 +687,7 @@
         <v>46.073272</v>
       </c>
       <c r="B5">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -728,7 +728,7 @@
         <v>46.073272</v>
       </c>
       <c r="B6">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>46.073272</v>
       </c>
       <c r="B7">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -810,7 +810,7 @@
         <v>46.073272</v>
       </c>
       <c r="B8">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -851,7 +851,7 @@
         <v>46.073272</v>
       </c>
       <c r="B9">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -869,22 +869,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>0.31</v>
+        <v>1.31</v>
       </c>
       <c r="I9">
-        <v>2.44</v>
+        <v>12.17</v>
       </c>
       <c r="J9">
-        <v>1.44</v>
+        <v>2.91</v>
       </c>
       <c r="K9">
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -892,7 +892,7 @@
         <v>46.073272</v>
       </c>
       <c r="B10">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>66.37</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="I10">
-        <v>322.94</v>
+        <v>353.18</v>
       </c>
       <c r="J10">
-        <v>38.13</v>
+        <v>41.06</v>
       </c>
       <c r="K10">
-        <v>18.84</v>
+        <v>22.36</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.84</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -933,7 +933,7 @@
         <v>46.073272</v>
       </c>
       <c r="B11">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>201.52</v>
+        <v>211.65</v>
       </c>
       <c r="I11">
-        <v>584.45</v>
+        <v>596.48</v>
       </c>
       <c r="J11">
-        <v>65.98</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="K11">
-        <v>62.39</v>
+        <v>52.91</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>62.39</v>
+        <v>52.91</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -974,7 +974,7 @@
         <v>46.073272</v>
       </c>
       <c r="B12">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>322.56</v>
+        <v>330.42</v>
       </c>
       <c r="I12">
-        <v>700.37</v>
+        <v>706.28</v>
       </c>
       <c r="J12">
-        <v>81.23</v>
+        <v>82.08</v>
       </c>
       <c r="K12">
-        <v>106.43</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>106.43</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1015,7 +1015,7 @@
         <v>46.073272</v>
       </c>
       <c r="B13">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>405.96</v>
+        <v>410.41</v>
       </c>
       <c r="I13">
-        <v>756.8200000000001</v>
+        <v>759.49</v>
       </c>
       <c r="J13">
-        <v>89.59999999999999</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="K13">
-        <v>146.92</v>
+        <v>102.6</v>
       </c>
       <c r="L13">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>146.28</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1056,7 +1056,7 @@
         <v>46.073272</v>
       </c>
       <c r="B14">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>440.73</v>
+        <v>441.23</v>
       </c>
       <c r="I14">
-        <v>776.88</v>
+        <v>777.17</v>
       </c>
       <c r="J14">
-        <v>92.75</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="K14">
-        <v>173.13</v>
+        <v>110.31</v>
       </c>
       <c r="L14">
-        <v>6.64</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>170.1</v>
+        <v>110.31</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1097,7 +1097,7 @@
         <v>46.073272</v>
       </c>
       <c r="B15">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>422.79</v>
+        <v>419.27</v>
       </c>
       <c r="I15">
-        <v>766.8</v>
+        <v>764.77</v>
       </c>
       <c r="J15">
-        <v>91.14</v>
+        <v>90.81</v>
       </c>
       <c r="K15">
-        <v>176.57</v>
+        <v>104.9</v>
       </c>
       <c r="L15">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>172.06</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1138,7 +1138,7 @@
         <v>46.073272</v>
       </c>
       <c r="B16">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>354.21</v>
+        <v>347.08</v>
       </c>
       <c r="I16">
-        <v>723.48</v>
+        <v>718.49</v>
       </c>
       <c r="J16">
-        <v>84.54000000000001</v>
+        <v>83.81</v>
       </c>
       <c r="K16">
-        <v>179.83</v>
+        <v>87.56</v>
       </c>
       <c r="L16">
-        <v>45.29</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>163.17</v>
+        <v>87.56</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1179,7 +1179,7 @@
         <v>46.073272</v>
       </c>
       <c r="B17">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>243.57</v>
+        <v>233.81</v>
       </c>
       <c r="I17">
-        <v>631.16</v>
+        <v>621.1</v>
       </c>
       <c r="J17">
-        <v>71.81999999999999</v>
+        <v>70.52</v>
       </c>
       <c r="K17">
-        <v>142.72</v>
+        <v>60.17</v>
       </c>
       <c r="L17">
-        <v>68.3</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>122.32</v>
+        <v>60.17</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1220,7 +1220,7 @@
         <v>46.073272</v>
       </c>
       <c r="B18">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>108.77</v>
+        <v>98.44</v>
       </c>
       <c r="I18">
-        <v>435.76</v>
+        <v>412.44</v>
       </c>
       <c r="J18">
-        <v>49.32</v>
+        <v>46.92</v>
       </c>
       <c r="K18">
-        <v>49.83</v>
+        <v>25.67</v>
       </c>
       <c r="L18">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>49.47</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1261,7 +1261,7 @@
         <v>46.073272</v>
       </c>
       <c r="B19">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1279,22 +1279,22 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>8.16</v>
+        <v>4.91</v>
       </c>
       <c r="I19">
-        <v>61.38</v>
+        <v>38.76</v>
       </c>
       <c r="J19">
-        <v>9.42</v>
+        <v>5.57</v>
       </c>
       <c r="K19">
-        <v>3.33</v>
+        <v>1.27</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.33</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1302,7 +1302,7 @@
         <v>46.073272</v>
       </c>
       <c r="B20">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1343,7 +1343,7 @@
         <v>46.073272</v>
       </c>
       <c r="B21">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1384,7 +1384,7 @@
         <v>46.073272</v>
       </c>
       <c r="B22">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1425,7 +1425,7 @@
         <v>46.073272</v>
       </c>
       <c r="B23">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1466,7 +1466,7 @@
         <v>46.073272</v>
       </c>
       <c r="B24">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1507,7 +1507,7 @@
         <v>46.073272</v>
       </c>
       <c r="B25">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>

--- a/RAAL/Production/Input/GHI_2024-02-03.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-03.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2574.57</v>
+        <v>2574.75</v>
       </c>
       <c r="H2">
-        <v>5760.33</v>
+        <v>5761.09</v>
       </c>
       <c r="I2">
-        <v>673.95</v>
+        <v>673.88</v>
       </c>
       <c r="J2">
-        <v>650.8</v>
+        <v>662.85</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>650.8</v>
+        <v>662.85</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +872,19 @@
         <v>1.31</v>
       </c>
       <c r="I9">
-        <v>12.17</v>
+        <v>12.18</v>
       </c>
       <c r="J9">
         <v>2.91</v>
       </c>
       <c r="K9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>76.04000000000001</v>
+        <v>76.05</v>
       </c>
       <c r="I10">
-        <v>353.18</v>
+        <v>353.26</v>
       </c>
       <c r="J10">
         <v>41.06</v>
       </c>
       <c r="K10">
-        <v>22.36</v>
+        <v>23.83</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.36</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>211.65</v>
+        <v>211.67</v>
       </c>
       <c r="I11">
-        <v>596.48</v>
+        <v>596.55</v>
       </c>
       <c r="J11">
         <v>67.45999999999999</v>
       </c>
       <c r="K11">
-        <v>52.91</v>
+        <v>52.92</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>52.91</v>
+        <v>52.92</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>330.42</v>
+        <v>330.44</v>
       </c>
       <c r="I12">
-        <v>706.28</v>
+        <v>706.35</v>
       </c>
       <c r="J12">
-        <v>82.08</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="K12">
-        <v>82.59999999999999</v>
+        <v>82.61</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>82.59999999999999</v>
+        <v>82.61</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>410.41</v>
+        <v>410.43</v>
       </c>
       <c r="I13">
-        <v>759.49</v>
+        <v>759.5599999999999</v>
       </c>
       <c r="J13">
-        <v>90.01000000000001</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>102.6</v>
+        <v>102.61</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>102.6</v>
+        <v>102.61</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,13 +1074,13 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>441.23</v>
+        <v>441.25</v>
       </c>
       <c r="I14">
-        <v>777.17</v>
+        <v>777.25</v>
       </c>
       <c r="J14">
-        <v>92.79000000000001</v>
+        <v>92.77</v>
       </c>
       <c r="K14">
         <v>110.31</v>
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>419.27</v>
+        <v>419.29</v>
       </c>
       <c r="I15">
-        <v>764.77</v>
+        <v>764.83</v>
       </c>
       <c r="J15">
-        <v>90.81</v>
+        <v>90.8</v>
       </c>
       <c r="K15">
-        <v>104.9</v>
+        <v>104.82</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>104.9</v>
+        <v>104.82</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>347.08</v>
+        <v>347.11</v>
       </c>
       <c r="I16">
-        <v>718.49</v>
+        <v>718.5599999999999</v>
       </c>
       <c r="J16">
-        <v>83.81</v>
+        <v>83.8</v>
       </c>
       <c r="K16">
-        <v>87.56</v>
+        <v>88.89</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>87.56</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>233.81</v>
+        <v>233.83</v>
       </c>
       <c r="I17">
-        <v>621.1</v>
+        <v>621.21</v>
       </c>
       <c r="J17">
         <v>70.52</v>
       </c>
       <c r="K17">
-        <v>60.17</v>
+        <v>65.06</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>60.17</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>98.44</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="I18">
-        <v>412.44</v>
+        <v>412.56</v>
       </c>
       <c r="J18">
         <v>46.92</v>
       </c>
       <c r="K18">
-        <v>25.67</v>
+        <v>29.78</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.67</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>4.91</v>
       </c>
       <c r="I19">
-        <v>38.76</v>
+        <v>38.78</v>
       </c>
       <c r="J19">
         <v>5.57</v>
       </c>
       <c r="K19">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="20" spans="1:13">
